--- a/biology/Botanique/Edgar_Zacharewicz/Edgar_Zacharewicz.xlsx
+++ b/biology/Botanique/Edgar_Zacharewicz/Edgar_Zacharewicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edgar Zacharewicz (Montagnac, 13 mars 1858[1] - Avignon, 4 février 1935[2]), ingénieur, directeur départemental des services agricoles et professeur à l'école d'agriculture départementale de Vaucluse au début du XXe siècle, est à l'origine de nombreuses méthodes de modernisation de l'agriculture.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edgar Zacharewicz (Montagnac, 13 mars 1858 - Avignon, 4 février 1935), ingénieur, directeur départemental des services agricoles et professeur à l'école d'agriculture départementale de Vaucluse au début du XXe siècle, est à l'origine de nombreuses méthodes de modernisation de l'agriculture.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'auteur de nombreux ouvrages de référence dans le domaine agronomique, notamment au sujet de la culture de la vigne. Il a vécu dans la villa "Mireille", 33, Avenue Monclar à Avignon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur de nombreux ouvrages de référence dans le domaine agronomique, notamment au sujet de la culture de la vigne. Il a vécu dans la villa "Mireille", 33, Avenue Monclar à Avignon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maladies cryptogamiques de la vigne. Moyens de les combattre, 1889.
 Culture des primeurs dans la région du Sud-Est. Rôle des engrais chimiques dans la culture maraîchère, 1890, Éd. Coulet, Montpellier / Masson, Paris.
